--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3583.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3583.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8907522399164925</v>
+        <v>4.10920524597168</v>
       </c>
       <c r="B1">
-        <v>1.274985339352669</v>
+        <v>4.319094181060791</v>
       </c>
       <c r="C1">
-        <v>2.4136938068628</v>
+        <v>1.985294342041016</v>
       </c>
       <c r="D1">
-        <v>5.261439465865629</v>
+        <v>1.487732172012329</v>
       </c>
       <c r="E1">
-        <v>1.840849908426552</v>
+        <v>1.311786413192749</v>
       </c>
     </row>
   </sheetData>
